--- a/Media/data/Dynalene Propylene Glycol.xlsx
+++ b/Media/data/Dynalene Propylene Glycol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Projects\ModelicaProjects\DynTherM\Media\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BFE6CA-516E-4905-9975-A0E4E65202B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC662CFD-FEEA-4762-A6F6-868705B1471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{32BF7C39-58A3-4B4A-A775-0F246D126BDC}"/>
+    <workbookView xWindow="-11235" yWindow="-21600" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{32BF7C39-58A3-4B4A-A775-0F246D126BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="viscosity" sheetId="1" r:id="rId1"/>
@@ -6023,7 +6023,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$7:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$7:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6080,57 +6080,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$M$7:$M$22</c:f>
+              <c:f>'thermal conductivity'!$M$7:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1027.68</c:v>
+                  <c:v>0.4534434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1026.24</c:v>
+                  <c:v>0.46209689999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024.48</c:v>
+                  <c:v>0.47075040000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1022.72</c:v>
+                  <c:v>0.47940389999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1020.64</c:v>
+                  <c:v>0.4863267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1018.56</c:v>
+                  <c:v>0.49324949999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1016.32</c:v>
+                  <c:v>0.5001722999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1013.92</c:v>
+                  <c:v>0.50536439999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1011.2</c:v>
+                  <c:v>0.51055649999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1005.6</c:v>
+                  <c:v>0.5157486</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>999.36</c:v>
+                  <c:v>0.52959420000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>992.48</c:v>
+                  <c:v>0.53478629999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>984.96</c:v>
+                  <c:v>0.53997839999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>976.8</c:v>
+                  <c:v>0.54343979999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>968</c:v>
+                  <c:v>0.54343979999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>958.56</c:v>
+                  <c:v>0.54343979999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6180,7 +6180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$7:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$7:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6237,57 +6237,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$N$7:$N$22</c:f>
+              <c:f>'thermal conductivity'!$N$7:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1033.1199999999999</c:v>
+                  <c:v>0.43440569999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1031.52</c:v>
+                  <c:v>0.44132849999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1029.5999999999999</c:v>
+                  <c:v>0.44998199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1027.68</c:v>
+                  <c:v>0.4569048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1025.44</c:v>
+                  <c:v>0.46382760000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1023.2</c:v>
+                  <c:v>0.47075040000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1020.8</c:v>
+                  <c:v>0.47594249999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1018.24</c:v>
+                  <c:v>0.48113460000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1015.52</c:v>
+                  <c:v>0.4863267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1009.44</c:v>
+                  <c:v>0.48978809999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1002.88</c:v>
+                  <c:v>0.50190299999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>995.68</c:v>
+                  <c:v>0.50709509999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>987.84</c:v>
+                  <c:v>0.51228719999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>979.36</c:v>
+                  <c:v>0.51401789999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>970.24</c:v>
+                  <c:v>0.51401789999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>960.48</c:v>
+                  <c:v>0.51401789999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6337,7 +6337,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$6:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$6:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6397,60 +6397,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$O$6:$O$22</c:f>
+              <c:f>'thermal conductivity'!$O$6:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1040</c:v>
+                  <c:v>0.40671449999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1038.4000000000001</c:v>
+                  <c:v>0.41363729999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1036.6400000000001</c:v>
+                  <c:v>0.42056009999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1034.72</c:v>
+                  <c:v>0.4274829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1032.48</c:v>
+                  <c:v>0.43440569999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1030.24</c:v>
+                  <c:v>0.43959779999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1027.8399999999999</c:v>
+                  <c:v>0.44652059999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1025.28</c:v>
+                  <c:v>0.45171269999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1022.56</c:v>
+                  <c:v>0.45517409999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1019.68</c:v>
+                  <c:v>0.4603662</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1013.28</c:v>
+                  <c:v>0.46382760000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1006.4</c:v>
+                  <c:v>0.47421180000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>998.88</c:v>
+                  <c:v>0.47940389999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>990.72</c:v>
+                  <c:v>0.4828653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>981.92</c:v>
+                  <c:v>0.48459600000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>972.48</c:v>
+                  <c:v>0.48459600000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>962.4</c:v>
+                  <c:v>0.48459600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6500,7 +6500,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$6:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$6:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6560,60 +6560,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$P$6:$P$22</c:f>
+              <c:f>'thermal conductivity'!$P$6:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1044.8</c:v>
+                  <c:v>0.38940749999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1043.04</c:v>
+                  <c:v>0.39633029999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1041.1199999999999</c:v>
+                  <c:v>0.40325309999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1039.04</c:v>
+                  <c:v>0.40844519999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1036.8</c:v>
+                  <c:v>0.41363729999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1034.4000000000001</c:v>
+                  <c:v>0.41882939999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1031.8399999999999</c:v>
+                  <c:v>0.42575219999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1029.1199999999999</c:v>
+                  <c:v>0.42921359999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1026.24</c:v>
+                  <c:v>0.43267499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1023.2</c:v>
+                  <c:v>0.43786709999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1016.64</c:v>
+                  <c:v>0.44132849999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1009.44</c:v>
+                  <c:v>0.44998199999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1001.6</c:v>
+                  <c:v>0.4534434</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>993.12</c:v>
+                  <c:v>0.4569048</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>984</c:v>
+                  <c:v>0.45863549999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>974.24</c:v>
+                  <c:v>0.45863549999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>964</c:v>
+                  <c:v>0.45863549999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6657,7 +6657,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$5:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$5:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
@@ -6720,63 +6720,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$Q$5:$Q$22</c:f>
+              <c:f>'thermal conductivity'!$Q$5:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1051.3599999999999</c:v>
+                  <c:v>0.36517769999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1049.5999999999999</c:v>
+                  <c:v>0.3721005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1047.68</c:v>
+                  <c:v>0.37729259999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1045.5999999999999</c:v>
+                  <c:v>0.38421539999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1043.3599999999999</c:v>
+                  <c:v>0.38940749999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1040.96</c:v>
+                  <c:v>0.39286889999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1038.4000000000001</c:v>
+                  <c:v>0.398061</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1035.68</c:v>
+                  <c:v>0.40325309999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1032.8</c:v>
+                  <c:v>0.40671449999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1029.76</c:v>
+                  <c:v>0.41017589999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1026.56</c:v>
+                  <c:v>0.41363729999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1019.84</c:v>
+                  <c:v>0.41709869999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1012.32</c:v>
+                  <c:v>0.4240215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1004.16</c:v>
+                  <c:v>0.4274829</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>995.52</c:v>
+                  <c:v>0.4309443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>986.08</c:v>
+                  <c:v>0.4309443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>976</c:v>
+                  <c:v>0.4309443</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>965.44</c:v>
+                  <c:v>0.4309443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6826,7 +6826,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$5:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$5:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
@@ -6889,63 +6889,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$R$5:$R$22</c:f>
+              <c:f>'thermal conductivity'!$R$5:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1055.52</c:v>
+                  <c:v>0.35133209999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1053.76</c:v>
+                  <c:v>0.35652419999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1051.68</c:v>
+                  <c:v>0.36171629999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1049.44</c:v>
+                  <c:v>0.36690839999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1047.04</c:v>
+                  <c:v>0.3721005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1044.48</c:v>
+                  <c:v>0.3755619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1041.92</c:v>
+                  <c:v>0.37902329999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1039.04</c:v>
+                  <c:v>0.38421539999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1036</c:v>
+                  <c:v>0.38594609999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1032.8</c:v>
+                  <c:v>0.38940749999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1029.5999999999999</c:v>
+                  <c:v>0.39286889999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1022.4</c:v>
+                  <c:v>0.39459959999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1014.72</c:v>
+                  <c:v>0.4015224</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1006.4</c:v>
+                  <c:v>0.4049838</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>997.44</c:v>
+                  <c:v>0.40671449999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>987.68</c:v>
+                  <c:v>0.40671449999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>977.44</c:v>
+                  <c:v>0.40671449999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>966.56</c:v>
+                  <c:v>0.40671449999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6995,7 +6995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$4:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$4:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7061,66 +7061,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$S$4:$S$22</c:f>
+              <c:f>'thermal conductivity'!$S$4:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1061.5999999999999</c:v>
+                  <c:v>0.33056369999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1059.68</c:v>
+                  <c:v>0.33575579999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1057.76</c:v>
+                  <c:v>0.3392172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.52</c:v>
+                  <c:v>0.34440929999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1053.1199999999999</c:v>
+                  <c:v>0.34787069999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050.72</c:v>
+                  <c:v>0.35306279999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1048</c:v>
+                  <c:v>0.35652419999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1045.28</c:v>
+                  <c:v>0.35998559999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1042.24</c:v>
+                  <c:v>0.36344699999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1039.2</c:v>
+                  <c:v>0.36517769999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1035.8399999999999</c:v>
+                  <c:v>0.3686391</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1032.48</c:v>
+                  <c:v>0.37036979999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1024.96</c:v>
+                  <c:v>0.3721005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1017.12</c:v>
+                  <c:v>0.37729259999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1008.48</c:v>
+                  <c:v>0.38075399999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>999.2</c:v>
+                  <c:v>0.38248469999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>989.28</c:v>
+                  <c:v>0.38248469999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>978.72</c:v>
+                  <c:v>0.38075399999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>967.52</c:v>
+                  <c:v>0.38075399999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7170,7 +7170,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$4:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$4:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7236,66 +7236,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$T$4:$T$22</c:f>
+              <c:f>'thermal conductivity'!$T$4:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1065.28</c:v>
+                  <c:v>0.31844879999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1063.3599999999999</c:v>
+                  <c:v>0.32191019999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1061.28</c:v>
+                  <c:v>0.32537159999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1058.8800000000001</c:v>
+                  <c:v>0.32883299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1056.32</c:v>
+                  <c:v>0.33229439999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1053.76</c:v>
+                  <c:v>0.33575579999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1051.04</c:v>
+                  <c:v>0.3392172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1048.1600000000001</c:v>
+                  <c:v>0.3426786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1044.96</c:v>
+                  <c:v>0.34440929999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1041.76</c:v>
+                  <c:v>0.34614</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1038.24</c:v>
+                  <c:v>0.34960140000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1034.72</c:v>
+                  <c:v>0.35133209999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1027.04</c:v>
+                  <c:v>0.35306279999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1018.88</c:v>
+                  <c:v>0.35652419999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1010.08</c:v>
+                  <c:v>0.35825489999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1000.48</c:v>
+                  <c:v>0.35998559999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>990.4</c:v>
+                  <c:v>0.35998559999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>979.68</c:v>
+                  <c:v>0.35825489999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>968.16</c:v>
+                  <c:v>0.35825489999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7345,7 +7345,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>density!$L$2:$L$22</c:f>
+              <c:f>'thermal conductivity'!$L$2:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -7417,72 +7417,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>density!$U$2:$U$22</c:f>
+              <c:f>'thermal conductivity'!$U$2:$U$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1072.8</c:v>
+                  <c:v>0.29594969999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1070.8800000000001</c:v>
+                  <c:v>0.30114179999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1068.96</c:v>
+                  <c:v>0.30460319999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1066.8800000000001</c:v>
+                  <c:v>0.30806459999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1064.6400000000001</c:v>
+                  <c:v>0.3097953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1062.08</c:v>
+                  <c:v>0.3132567</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1059.52</c:v>
+                  <c:v>0.3167181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1056.8</c:v>
+                  <c:v>0.31844879999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1053.92</c:v>
+                  <c:v>0.32191019999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1050.8800000000001</c:v>
+                  <c:v>0.32364090000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1047.52</c:v>
+                  <c:v>0.32537159999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1044.1600000000001</c:v>
+                  <c:v>0.32710229999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1040.6400000000001</c:v>
+                  <c:v>0.32883299999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1036.96</c:v>
+                  <c:v>0.33056369999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1029.1199999999999</c:v>
+                  <c:v>0.33229439999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1020.64</c:v>
+                  <c:v>0.33575579999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1011.52</c:v>
+                  <c:v>0.33575579999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1001.76</c:v>
+                  <c:v>0.33748649999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>991.52</c:v>
+                  <c:v>0.33575579999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>980.48</c:v>
+                  <c:v>0.33575579999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>968.8</c:v>
+                  <c:v>0.33575579999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7642,7 +7642,7 @@
         <c:axId val="689519888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="940"/>
+          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10435,12 +10435,12 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-30</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>7.4200000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>20</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>4.9299999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>60</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>70</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>9.5099999999999994E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>80</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>7.3400000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>5.77E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>100</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>4.62E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>120</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>3.1099999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>140</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>2.2200000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>1.66E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>180</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>1.2900000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>200</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>1.0400000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>220</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>8.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>240</v>
       </c>
@@ -12000,14 +12000,14 @@
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-30</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>3097.64</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>3122.7559999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>3147.8719999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>3172.9879999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>3198.1040000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>20</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>3223.2200000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>3248.3360000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>3273.4520000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>3294.3820000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>60</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>3319.498</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>70</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>3344.614</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>80</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>3369.73</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>3394.846</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>100</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>3419.962</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>120</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>3466.0079999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>140</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>3516.24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>3566.4719999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>180</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>3616.7040000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>200</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>3662.75</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>220</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>3712.982</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>240</v>
       </c>
@@ -13564,17 +13564,17 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U22"/>
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-30</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>1072.8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>1070.8800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>1068.96</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>1066.8800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>1064.6400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>20</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>1062.08</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>1059.52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>1056.8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>1053.92</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>60</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>1050.8800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>70</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>1047.52</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>80</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>1044.1600000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>1040.6400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>100</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>1036.96</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>120</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>1029.1199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>140</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>1020.64</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>1011.52</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>180</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>1001.76</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>200</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>991.52</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>220</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>980.48</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>240</v>
       </c>
@@ -15131,16 +15131,16 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-30</v>
       </c>
@@ -15262,11 +15262,11 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="N2:U22" si="0">J2*16</f>
-        <v>2.7360000000000002</v>
+        <f>J2*1.7307</f>
+        <v>0.29594969999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L22" si="1">(A3-32)*5/9</f>
+        <f t="shared" ref="L3:L22" si="0">(A3-32)*5/9</f>
         <v>-28.888888888888889</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -15326,11 +15326,11 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7839999999999998</v>
+        <f t="shared" ref="S3:U22" si="1">J3*1.7307</f>
+        <v>0.30114179999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -15362,41 +15362,41 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>-23.333333333333332</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="1"/>
-        <v>-23.333333333333332</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="e">
-        <f>#REF!*16</f>
-        <v>#REF!</v>
+        <v>0.33056369999999996</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.944</v>
+        <f t="shared" si="1"/>
+        <v>0.31844879999999998</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8159999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.30460319999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -15428,43 +15428,43 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>-17.777777777777779</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q22" si="2">F5*1.7307</f>
+        <v>0.36517769999999999</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R22" si="3">G5*1.7307</f>
+        <v>0.35133209999999998</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>-17.777777777777779</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3759999999999999</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2480000000000002</v>
-      </c>
-      <c r="S5" s="1">
-        <f>H4*16</f>
-        <v>3.056</v>
+        <v>0.33575579999999999</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.976</v>
+        <f t="shared" si="1"/>
+        <v>0.32191019999999998</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8479999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.30806459999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
@@ -15496,45 +15496,45 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.222222222222221</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O22" si="4">D6*1.7307</f>
+        <v>0.40671449999999998</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" ref="P6:P22" si="5">E6*1.7307</f>
+        <v>0.38940749999999996</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3721005</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35652419999999996</v>
+      </c>
+      <c r="S6" s="1">
         <f t="shared" si="1"/>
-        <v>-12.222222222222221</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.44</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2959999999999998</v>
-      </c>
-      <c r="S6" s="1">
-        <f>H5*16</f>
-        <v>3.1040000000000001</v>
+        <v>0.3392172</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.008</v>
+        <f t="shared" si="1"/>
+        <v>0.32537159999999998</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8639999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.3097953</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>20</v>
       </c>
@@ -15566,47 +15566,47 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7:M22" si="6">B7*1.7307</f>
+        <v>0.4534434</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7:N22" si="7">C7*1.7307</f>
+        <v>0.43440569999999995</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.41363729999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.39633029999999997</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37729259999999998</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.36171629999999999</v>
+      </c>
+      <c r="S7" s="1">
         <f t="shared" si="1"/>
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="M7" s="1">
-        <f>B7*16</f>
-        <v>4.1920000000000002</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.016</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.488</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3439999999999999</v>
-      </c>
-      <c r="S7" s="1">
-        <f>H6*16</f>
-        <v>3.1360000000000001</v>
+        <v>0.34440929999999997</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.04</v>
+        <f t="shared" si="1"/>
+        <v>0.32883299999999999</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8959999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.3132567</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30</v>
       </c>
@@ -15638,47 +15638,47 @@
         <v>0.183</v>
       </c>
       <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1111111111111112</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.46209689999999998</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.44132849999999996</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.42056009999999999</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40325309999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38421539999999998</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.36690839999999997</v>
+      </c>
+      <c r="S8" s="1">
         <f t="shared" si="1"/>
-        <v>-1.1111111111111112</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" ref="M8:M22" si="2">B8*16</f>
-        <v>4.2720000000000002</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.08</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8879999999999999</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7280000000000002</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.552</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3919999999999999</v>
-      </c>
-      <c r="S8" s="1">
-        <f>H7*16</f>
-        <v>3.1840000000000002</v>
+        <v>0.34787069999999998</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0720000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33229439999999999</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9279999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.3167181</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>40</v>
       </c>
@@ -15710,47 +15710,47 @@
         <v>0.184</v>
       </c>
       <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.47075040000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.44998199999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4274829</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40844519999999995</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38940749999999996</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3721005</v>
+      </c>
+      <c r="S9" s="1">
         <f t="shared" si="1"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3520000000000003</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.16</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.952</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7759999999999998</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.44</v>
-      </c>
-      <c r="S9" s="1">
-        <f>H8*16</f>
-        <v>3.2160000000000002</v>
+        <v>0.35306279999999995</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1040000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33575579999999999</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.944</v>
+        <f t="shared" si="1"/>
+        <v>0.31844879999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>50</v>
       </c>
@@ -15782,47 +15782,47 @@
         <v>0.186</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.47940389999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.4569048</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.43440569999999995</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41363729999999999</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39286889999999997</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3755619</v>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4320000000000004</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2240000000000002</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="0"/>
-        <v>4.016</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6320000000000001</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.472</v>
-      </c>
-      <c r="S10" s="1">
-        <f>H9*16</f>
-        <v>3.2639999999999998</v>
+        <v>0.35652419999999996</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1360000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.3392172</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="0"/>
-        <v>2.976</v>
+        <f t="shared" si="1"/>
+        <v>0.32191019999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>60</v>
       </c>
@@ -15854,47 +15854,47 @@
         <v>0.187</v>
       </c>
       <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.4863267</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46382760000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.43959779999999998</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41882939999999996</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.398061</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37902329999999995</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="1"/>
-        <v>15.555555555555555</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4960000000000004</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2880000000000003</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8719999999999999</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.68</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.504</v>
-      </c>
-      <c r="S11" s="1">
-        <f>H10*16</f>
-        <v>3.2959999999999998</v>
+        <v>0.35998559999999996</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1680000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.3426786</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="0"/>
-        <v>2.992</v>
+        <f t="shared" si="1"/>
+        <v>0.32364090000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>70</v>
       </c>
@@ -15926,47 +15926,47 @@
         <v>0.188</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="6"/>
+        <v>0.49324949999999995</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47075040000000001</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44652059999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42575219999999997</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40325309999999998</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38421539999999998</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="1"/>
-        <v>21.111111111111111</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3520000000000003</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1280000000000001</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9359999999999999</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7280000000000002</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.552</v>
-      </c>
-      <c r="S12" s="1">
-        <f>H11*16</f>
-        <v>3.3279999999999998</v>
+        <v>0.36344699999999996</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1840000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.34440929999999997</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="0"/>
-        <v>3.008</v>
+        <f t="shared" si="1"/>
+        <v>0.32537159999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>80</v>
       </c>
@@ -15998,47 +15998,47 @@
         <v>0.189</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5001722999999999</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47594249999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45171269999999997</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42921359999999997</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40671449999999998</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38594609999999996</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="1"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6239999999999997</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.968</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5680000000000001</v>
-      </c>
-      <c r="S13" s="1">
-        <f>H12*16</f>
-        <v>3.36</v>
+        <v>0.36517769999999999</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
+        <f t="shared" si="1"/>
+        <v>0.34614</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.024</v>
+        <f t="shared" si="1"/>
+        <v>0.32710229999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -16070,47 +16070,47 @@
         <v>0.19</v>
       </c>
       <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>32.222222222222221</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.50536439999999994</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="7"/>
+        <v>0.48113460000000002</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45517409999999997</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43267499999999998</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41017589999999998</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38940749999999996</v>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" si="1"/>
-        <v>32.222222222222221</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6719999999999997</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4480000000000004</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2080000000000002</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7919999999999998</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="S14" s="1">
-        <f>H13*16</f>
-        <v>3.3759999999999999</v>
+        <v>0.3686391</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2320000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.34960140000000001</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.04</v>
+        <f t="shared" si="1"/>
+        <v>0.32883299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>100</v>
       </c>
@@ -16142,47 +16142,47 @@
         <v>0.191</v>
       </c>
       <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>37.777777777777779</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.51055649999999997</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.4863267</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4603662</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43786709999999995</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41363729999999999</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39286889999999997</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="2"/>
-        <v>4.72</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4960000000000004</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2560000000000002</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>4.048</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6320000000000001</v>
-      </c>
-      <c r="S15" s="1">
-        <f>H14*16</f>
-        <v>3.4079999999999999</v>
+        <v>0.37036979999999997</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2480000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.35133209999999998</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.056</v>
+        <f t="shared" si="1"/>
+        <v>0.33056369999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>120</v>
       </c>
@@ -16214,47 +16214,47 @@
         <v>0.192</v>
       </c>
       <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5157486</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.48978809999999995</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46382760000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44132849999999996</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41709869999999999</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39459959999999999</v>
+      </c>
+      <c r="S16" s="1">
         <f t="shared" si="1"/>
-        <v>48.888888888888886</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="2"/>
-        <v>4.7679999999999998</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5279999999999996</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2880000000000003</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="0"/>
-        <v>4.08</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8559999999999999</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6480000000000001</v>
-      </c>
-      <c r="S16" s="1">
-        <f>H15*16</f>
-        <v>3.4239999999999999</v>
+        <v>0.3721005</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2639999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.35306279999999995</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0720000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33229439999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>140</v>
       </c>
@@ -16286,47 +16286,47 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.52959420000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.50190299999999999</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47421180000000002</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44998199999999999</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4240215</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4015224</v>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="2"/>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3840000000000003</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="0"/>
-        <v>4.16</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.92</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7120000000000002</v>
-      </c>
-      <c r="S17" s="1">
-        <f>H16*16</f>
-        <v>3.44</v>
+        <v>0.37729259999999998</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2959999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.35652419999999996</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1040000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33575579999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -16358,47 +16358,47 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.53478629999999994</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="7"/>
+        <v>0.50709509999999991</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47940389999999999</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4534434</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4274829</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4049838</v>
+      </c>
+      <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>71.111111111111114</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="2"/>
-        <v>4.944</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.6879999999999997</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4320000000000004</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1920000000000002</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.952</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7440000000000002</v>
-      </c>
-      <c r="S18" s="1">
-        <f>H17*16</f>
-        <v>3.488</v>
+        <v>0.38075399999999998</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3119999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.35825489999999999</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1040000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33575579999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>180</v>
       </c>
@@ -16430,47 +16430,47 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>82.222222222222229</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.53997839999999997</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="7"/>
+        <v>0.51228719999999994</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4828653</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4569048</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4309443</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40671449999999998</v>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" si="1"/>
-        <v>82.222222222222229</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="2"/>
-        <v>4.992</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7359999999999998</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4640000000000004</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2240000000000002</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.984</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="S19" s="1">
-        <f>H18*16</f>
-        <v>3.52</v>
+        <v>0.38248469999999996</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3279999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.35998559999999996</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.12</v>
+        <f t="shared" si="1"/>
+        <v>0.33748649999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>200</v>
       </c>
@@ -16502,47 +16502,47 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.54343979999999992</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.51401789999999992</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48459600000000003</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45863549999999997</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4309443</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40671449999999998</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="2"/>
-        <v>5.024</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7519999999999998</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="0"/>
-        <v>4.24</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.984</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="S20" s="1">
-        <f>H19*16</f>
-        <v>3.536</v>
+        <v>0.38248469999999996</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3279999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.35998559999999996</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1040000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33575579999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>220</v>
       </c>
@@ -16574,47 +16574,47 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>104.44444444444444</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="6"/>
+        <v>0.54343979999999992</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="7"/>
+        <v>0.51401789999999992</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48459600000000003</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45863549999999997</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4309443</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40671449999999998</v>
+      </c>
+      <c r="S21" s="1">
         <f t="shared" si="1"/>
-        <v>104.44444444444444</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="2"/>
-        <v>5.024</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7519999999999998</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="0"/>
-        <v>4.24</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="0"/>
-        <v>3.984</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="S21" s="1">
-        <f>H20*16</f>
-        <v>3.536</v>
+        <v>0.38075399999999998</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3119999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.35825489999999999</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1040000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33575579999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>240</v>
       </c>
@@ -16646,44 +16646,44 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>115.55555555555556</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="6"/>
+        <v>0.54343979999999992</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.51401789999999992</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48459600000000003</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45863549999999997</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4309443</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40671449999999998</v>
+      </c>
+      <c r="S22" s="1">
         <f t="shared" si="1"/>
-        <v>115.55555555555556</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="2"/>
-        <v>5.024</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7519999999999998</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="0"/>
-        <v>4.24</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.984</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.52</v>
+        <v>0.38075399999999998</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3119999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.35825489999999999</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1040000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.33575579999999999</v>
       </c>
     </row>
   </sheetData>
